--- a/dist/document/dest/2020/10/doctors/167.xlsx
+++ b/dist/document/dest/2020/10/doctors/167.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>109</v>
       </c>
-      <c r="C2" s="1">
-        <v>6954200</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>845000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>144100</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>1153</v>
       </c>
-      <c r="C5" s="1">
-        <v>32975800</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>56</v>
       </c>
-      <c r="C6" s="1">
-        <v>862400</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>78</v>
       </c>
-      <c r="C7" s="1">
-        <v>10849800</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
-        <v>15120</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>40</v>
       </c>
-      <c r="C9" s="1">
-        <v>391600</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>180</v>
       </c>
-      <c r="C10" s="1">
-        <v>641700</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="1">
-        <v>1617000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="1">
-        <v>211800</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>32</v>
       </c>
-      <c r="C13" s="1">
-        <v>144320</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>680</v>
       </c>
-      <c r="C14" s="1">
-        <v>5236000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="1">
-        <v>10000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
-        <v>62700</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>600</v>
       </c>
-      <c r="C17" s="1">
-        <v>3105000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>85</v>
       </c>
-      <c r="C18" s="1">
-        <v>375700</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>13</v>
       </c>
-      <c r="C19" s="1">
-        <v>500500</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>40</v>
       </c>
-      <c r="C20" s="1">
-        <v>721600</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>660</v>
       </c>
-      <c r="C21" s="1">
-        <v>12342000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -625,7 +565,7 @@
         <v>3884</v>
       </c>
       <c r="C22" s="1">
-        <v>78006340</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/167.xlsx
+++ b/dist/document/dest/2020/10/doctors/167.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,175 +402,697 @@
         <v>AmiGyno 200ml</v>
       </c>
       <c r="B2" s="1">
-        <v>109</v>
+        <v>74</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4721200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Baifem K (Baicalin,vogonin)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1148400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
       </c>
+      <c r="C4" s="1">
+        <v>1276000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B5" s="1">
-        <v>1153</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>63800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Clatab (Clarithromycin 500mg)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B6" s="1">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>63800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+        <v>Baifem K (Baicalin,vogonin)</v>
       </c>
       <c r="B7" s="1">
-        <v>78</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>169000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Doxycyclin 100mg</v>
+        <v>Baifem K (Baicalin,vogonin)</v>
       </c>
       <c r="B8" s="1">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1352000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Duphaston (Dydrogesterone 10mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>72050</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B10" s="1">
-        <v>180</v>
+        <v>130</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3718000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>572000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v xml:space="preserve">Marvelon </v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6006000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B13" s="1">
-        <v>32</v>
+        <v>235</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6721000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Metronizol Neo (Metronidazole, neomycin sulfate, nystatin)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B14" s="1">
-        <v>680</v>
+        <v>1429</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40869400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>314</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8980400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Polygynax (Neomycin, polymycin, nystatin)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
+        <v>160</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4576000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Seromin (Vitamin A, C, E)</v>
+        <v>Clatab (Clarithromycin 500mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>600</v>
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>215600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Transamin 500mg (Tranexamic)</v>
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
       </c>
       <c r="B18" s="1">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>417300</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Upetal (Fluconazol 150mg)</v>
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
       </c>
       <c r="B19" s="1">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1947400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
       </c>
       <c r="B20" s="1">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>139100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
       </c>
       <c r="B21" s="1">
-        <v>660</v>
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>278200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+      </c>
+      <c r="B22" s="1">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10015200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2921100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>139100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1808300</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>97900</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B27" s="1">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1">
+        <v>332860</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B28" s="1">
+        <v>160</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1566400</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B29" s="1">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1">
+        <v>195800</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>106950</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>35650</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>180</v>
+      </c>
+      <c r="C34" s="1">
+        <v>641700</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Losec (Omeprazole 20mg)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <v>205940</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v xml:space="preserve">Marvelon </v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>141200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v xml:space="preserve">Marvelon </v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>141200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>27060</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Metronizol Neo (Metronidazole, neomycin sulfate, nystatin)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Polygynax (Neomycin, polymycin, nystatin)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Polygynax (Neomycin, polymycin, nystatin)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Polygynax (Neomycin, polymycin, nystatin)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>335</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1733625</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1">
+        <v>66300</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1">
+        <v>221000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1">
+        <v>66300</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1">
+        <v>66300</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>39</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1501500</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>360800</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>20</v>
+      </c>
+      <c r="C57" s="1">
+        <v>360800</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>550</v>
+      </c>
+      <c r="C58" s="1">
+        <v>10285000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2244000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>70</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1309000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>40</v>
+      </c>
+      <c r="C61" s="1">
+        <v>748000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>90</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1683000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1122000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B22" s="1">
-        <v>3884</v>
-      </c>
-      <c r="C22" s="1">
-        <v>NaN</v>
+      <c r="B64" s="1">
+        <v>4894</v>
+      </c>
+      <c r="C64" s="1">
+        <v>125141285</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C64"/>
   </ignoredErrors>
 </worksheet>
 </file>